--- a/Data/1-AV-001-PR.xlsx
+++ b/Data/1-AV-001-PR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8de5ce5af610e53e/Geologia/Dados/Pesquisas 2021 - 2022/Jupyter Notebooks/Parana GeoChem Groups Wells/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8de5ce5af610e53e/Geologia/Dados/Pesquisas 2021 - 2022/Code Projects/Paraná LIP Well/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="11_AD4D361C20488DEA4E38A082BC1D54085ADEDD9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA879BD-40B0-4AB2-B29D-6E329F6EB962}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_AD4D361C20488DEA4E38A082BC1D54085ADEDD9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B39A95-3051-4056-B585-AC1D7AE77463}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="17">
   <si>
     <t>Well</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Paranapanema</t>
-  </si>
-  <si>
-    <t>Pitanga II</t>
   </si>
   <si>
     <t>Pitanga</t>
@@ -406,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="F194" sqref="A189:F194"/>
+      <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,10 +447,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>1.7599999999999909</v>
+        <v>11.199999999999989</v>
+      </c>
+      <c r="E2">
+        <v>31.360000000000014</v>
+      </c>
+      <c r="F2">
+        <v>0.58928571428571463</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -464,13 +467,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>2.1599999999999966</v>
-      </c>
-      <c r="E3">
-        <v>2.1599999999999966</v>
+        <v>18.480000000000018</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -481,16 +481,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>4.4800000000000182</v>
-      </c>
-      <c r="E4">
-        <v>13.359999999999985</v>
-      </c>
-      <c r="F4">
-        <v>0.61676646706586746</v>
+        <v>1.6800000000000068</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -501,10 +495,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>8.2399999999999807</v>
+        <v>1.2299999999999898</v>
+      </c>
+      <c r="E5">
+        <v>1.2299999999999898</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -515,10 +512,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>0.63999999999998636</v>
+        <v>29.810000000000002</v>
+      </c>
+      <c r="E6">
+        <v>88.47999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.64319620253164556</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,13 +532,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>0.80000000000001137</v>
-      </c>
-      <c r="E7">
-        <v>0.80000000000001137</v>
+        <v>56.91</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -546,16 +546,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>15.04000000000002</v>
-      </c>
-      <c r="E8">
-        <v>34.240000000000009</v>
-      </c>
-      <c r="F8">
-        <v>0.53271028037383195</v>
+        <v>1.7599999999999909</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,10 +560,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>18.240000000000009</v>
+        <v>2.1599999999999966</v>
+      </c>
+      <c r="E9">
+        <v>2.1599999999999966</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -580,10 +577,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>0.95999999999997954</v>
+        <v>4.4800000000000182</v>
+      </c>
+      <c r="E10">
+        <v>13.359999999999985</v>
+      </c>
+      <c r="F10">
+        <v>0.61676646706586746</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -594,13 +597,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>2.160000000000025</v>
-      </c>
-      <c r="E11">
-        <v>2.160000000000025</v>
+        <v>8.2399999999999807</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,13 +611,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>0.79999999999995453</v>
-      </c>
-      <c r="E12">
-        <v>0.79999999999995453</v>
+        <v>0.63999999999998636</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,13 +625,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>7.5200000000000387</v>
+        <v>0.80000000000001137</v>
       </c>
       <c r="E13">
-        <v>7.5200000000000387</v>
+        <v>0.80000000000001137</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -645,16 +642,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>4.3999999999999773</v>
+        <v>15.04000000000002</v>
       </c>
       <c r="E14">
-        <v>7.5999999999999659</v>
+        <v>34.240000000000009</v>
       </c>
       <c r="F14">
-        <v>0.25263157894737165</v>
+        <v>0.53271028037383195</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -665,10 +662,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.9200000000000159</v>
+        <v>18.240000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,10 +676,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>1.2799999999999727</v>
+        <v>0.95999999999997954</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -693,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>11.600000000000023</v>
+        <v>2.160000000000025</v>
       </c>
       <c r="E17">
-        <v>11.600000000000023</v>
+        <v>2.160000000000025</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -710,16 +707,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>8.8799999999999955</v>
+        <v>0.79999999999995453</v>
       </c>
       <c r="E18">
-        <v>14.560000000000002</v>
-      </c>
-      <c r="F18">
-        <v>0.30219780219780057</v>
+        <v>0.79999999999995453</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -730,10 +724,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>4.3999999999999773</v>
+        <v>7.5200000000000387</v>
+      </c>
+      <c r="E19">
+        <v>7.5200000000000387</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -744,10 +741,16 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>1.2800000000000296</v>
+        <v>4.3999999999999773</v>
+      </c>
+      <c r="E20">
+        <v>7.5999999999999659</v>
+      </c>
+      <c r="F20">
+        <v>0.25263157894737165</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,13 +761,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>2.160000000000025</v>
-      </c>
-      <c r="E21">
-        <v>2.160000000000025</v>
+        <v>1.9200000000000159</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,16 +775,10 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>11.569999999999993</v>
-      </c>
-      <c r="E22">
-        <v>25.599999999999966</v>
-      </c>
-      <c r="F22">
-        <v>0.50429687499999942</v>
+        <v>1.2799999999999727</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,10 +789,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>12.909999999999968</v>
+        <v>11.600000000000023</v>
+      </c>
+      <c r="E23">
+        <v>11.600000000000023</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,10 +806,16 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>1.1200000000000045</v>
+        <v>8.8799999999999955</v>
+      </c>
+      <c r="E24">
+        <v>14.560000000000002</v>
+      </c>
+      <c r="F24">
+        <v>0.30219780219780057</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,13 +826,10 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>1.3600000000000136</v>
-      </c>
-      <c r="E25">
-        <v>1.3600000000000136</v>
+        <v>4.3999999999999773</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -840,16 +840,10 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>14.95999999999998</v>
-      </c>
-      <c r="E26">
-        <v>28.240000000000009</v>
-      </c>
-      <c r="F26">
-        <v>0.3994334277620406</v>
+        <v>1.2800000000000296</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,10 +854,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>11.28000000000003</v>
+        <v>2.160000000000025</v>
+      </c>
+      <c r="E27">
+        <v>2.160000000000025</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -874,10 +871,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>11.569999999999993</v>
+      </c>
+      <c r="E28">
+        <v>25.599999999999966</v>
+      </c>
+      <c r="F28">
+        <v>0.50429687499999942</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,13 +891,10 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
+        <v>12.909999999999968</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,16 +905,10 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>5.9199999999999591</v>
-      </c>
-      <c r="E30">
-        <v>8.4799999999999613</v>
-      </c>
-      <c r="F30">
-        <v>0.22641509433962556</v>
+        <v>1.1200000000000045</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,10 +919,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>1.9200000000000159</v>
+        <v>1.3600000000000136</v>
+      </c>
+      <c r="E31">
+        <v>1.3600000000000136</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -939,10 +936,16 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>0.63999999999998636</v>
+        <v>14.95999999999998</v>
+      </c>
+      <c r="E32">
+        <v>28.240000000000009</v>
+      </c>
+      <c r="F32">
+        <v>0.3994334277620406</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,13 +956,10 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>2.6400000000000432</v>
-      </c>
-      <c r="E33">
-        <v>2.6400000000000432</v>
+        <v>11.28000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,16 +970,10 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>4.6399999999999864</v>
-      </c>
-      <c r="E34">
-        <v>9.0399999999999636</v>
-      </c>
-      <c r="F34">
-        <v>0.38053097345132869</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,10 +984,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>3.4399999999999977</v>
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,10 +1001,16 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>0.95999999999997954</v>
+        <v>5.9199999999999591</v>
+      </c>
+      <c r="E36">
+        <v>8.4799999999999613</v>
+      </c>
+      <c r="F36">
+        <v>0.22641509433962556</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,16 +1021,10 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>9.5200000000000387</v>
-      </c>
-      <c r="E37">
-        <v>23.920000000000016</v>
-      </c>
-      <c r="F37">
-        <v>0.52842809364548404</v>
+        <v>1.9200000000000159</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1038,10 +1035,10 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>12.639999999999986</v>
+        <v>0.63999999999998636</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1052,10 +1049,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>1.7599999999999909</v>
+        <v>2.6400000000000432</v>
+      </c>
+      <c r="E39">
+        <v>2.6400000000000432</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1066,13 +1066,16 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>2.3999999999999773</v>
+        <v>4.6399999999999864</v>
       </c>
       <c r="E40">
-        <v>2.3999999999999773</v>
+        <v>9.0399999999999636</v>
+      </c>
+      <c r="F40">
+        <v>0.38053097345132869</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1083,13 +1086,10 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>15.520000000000039</v>
-      </c>
-      <c r="E41">
-        <v>15.520000000000039</v>
+        <v>3.4399999999999977</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,16 +1100,10 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42">
-        <v>3.3599999999999568</v>
-      </c>
-      <c r="E42">
-        <v>10.479999999999961</v>
-      </c>
-      <c r="F42">
-        <v>0.46564885496183878</v>
+        <v>0.95999999999997954</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1120,10 +1114,16 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>4.8800000000000523</v>
+        <v>9.5200000000000387</v>
+      </c>
+      <c r="E43">
+        <v>23.920000000000016</v>
+      </c>
+      <c r="F43">
+        <v>0.52842809364548404</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1134,10 +1134,10 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>2.2399999999999523</v>
+        <v>12.639999999999986</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1148,13 +1148,10 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>0.16000000000002501</v>
-      </c>
-      <c r="E45">
-        <v>0.16000000000002501</v>
+        <v>1.7599999999999909</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,16 +1162,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>6.6399999999999864</v>
+        <v>2.3999999999999773</v>
       </c>
       <c r="E46">
-        <v>12.800000000000011</v>
-      </c>
-      <c r="F46">
-        <v>0.41250000000000192</v>
+        <v>2.3999999999999773</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1185,10 +1179,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>5.2800000000000296</v>
+        <v>15.520000000000039</v>
+      </c>
+      <c r="E47">
+        <v>15.520000000000039</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,10 +1196,16 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>0.87999999999999545</v>
+        <v>3.3599999999999568</v>
+      </c>
+      <c r="E48">
+        <v>10.479999999999961</v>
+      </c>
+      <c r="F48">
+        <v>0.46564885496183878</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,13 +1216,10 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>1.1200000000000045</v>
-      </c>
-      <c r="E49">
-        <v>1.1200000000000045</v>
+        <v>4.8800000000000523</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1230,16 +1230,10 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50">
-        <v>20.479999999999961</v>
-      </c>
-      <c r="F50">
-        <v>0.75781250000000056</v>
+        <v>2.2399999999999523</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1250,10 +1244,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>15.519999999999982</v>
+        <v>0.16000000000002501</v>
+      </c>
+      <c r="E51">
+        <v>0.16000000000002501</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,10 +1261,16 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52">
-        <v>0.95999999999997954</v>
+        <v>6.6399999999999864</v>
+      </c>
+      <c r="E52">
+        <v>12.800000000000011</v>
+      </c>
+      <c r="F52">
+        <v>0.41250000000000192</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,13 +1281,10 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>3.4399999999999977</v>
-      </c>
-      <c r="E53">
-        <v>3.4399999999999977</v>
+        <v>5.2800000000000296</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,16 +1295,10 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>13.279999999999973</v>
-      </c>
-      <c r="E54">
-        <v>24.159999999999968</v>
-      </c>
-      <c r="F54">
-        <v>0.39072847682119483</v>
+        <v>0.87999999999999545</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,10 +1309,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>9.4400000000000546</v>
+        <v>1.1200000000000045</v>
+      </c>
+      <c r="E55">
+        <v>1.1200000000000045</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,10 +1326,16 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>1.4399999999999409</v>
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>20.479999999999961</v>
+      </c>
+      <c r="F56">
+        <v>0.75781250000000056</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,13 +1346,10 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>16.160000000000082</v>
-      </c>
-      <c r="E57">
-        <v>16.160000000000082</v>
+        <v>15.519999999999982</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,13 +1360,10 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>1.5199999999999818</v>
-      </c>
-      <c r="E58">
-        <v>1.5199999999999818</v>
+        <v>0.95999999999997954</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,16 +1374,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>8.9600000000000364</v>
+        <v>3.4399999999999977</v>
       </c>
       <c r="E59">
-        <v>50</v>
-      </c>
-      <c r="F59">
-        <v>0.78879999999999884</v>
+        <v>3.4399999999999977</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1397,10 +1391,16 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>39.439999999999941</v>
+        <v>13.279999999999973</v>
+      </c>
+      <c r="E60">
+        <v>24.159999999999968</v>
+      </c>
+      <c r="F60">
+        <v>0.39072847682119483</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,10 +1411,10 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>1.6000000000000227</v>
+        <v>9.4400000000000546</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,13 +1425,10 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>4.2400000000000091</v>
-      </c>
-      <c r="E62">
-        <v>4.2400000000000091</v>
+        <v>1.4399999999999409</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1442,13 +1439,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63">
-        <v>3.7300000000000182</v>
+        <v>16.160000000000082</v>
       </c>
       <c r="E63">
-        <v>3.7300000000000182</v>
+        <v>16.160000000000082</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,16 +1456,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>2.8799999999999955</v>
+        <v>1.5199999999999818</v>
       </c>
       <c r="E64">
-        <v>15.149999999999977</v>
-      </c>
-      <c r="F64">
-        <v>0.2660066006600646</v>
+        <v>1.5199999999999818</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,10 +1473,16 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65">
-        <v>4.0299999999999727</v>
+        <v>8.9600000000000364</v>
+      </c>
+      <c r="E65">
+        <v>50</v>
+      </c>
+      <c r="F65">
+        <v>0.78879999999999884</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,10 +1493,10 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>8.2400000000000091</v>
+        <v>39.439999999999941</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1507,14 +1507,11 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>1.6000000000000227</v>
       </c>
-      <c r="E67">
-        <v>1.6000000000000227</v>
-      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -1524,16 +1521,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>7.4900000000000091</v>
+        <v>4.2400000000000091</v>
       </c>
       <c r="E68">
-        <v>13.409999999999968</v>
-      </c>
-      <c r="F68">
-        <v>0.31618195376584779</v>
+        <v>4.2400000000000091</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,10 +1538,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>4.2400000000000091</v>
+        <v>3.7300000000000182</v>
+      </c>
+      <c r="E69">
+        <v>3.7300000000000182</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,10 +1555,16 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>1.67999999999995</v>
+        <v>2.8799999999999955</v>
+      </c>
+      <c r="E70">
+        <v>15.149999999999977</v>
+      </c>
+      <c r="F70">
+        <v>0.2660066006600646</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1572,16 +1575,10 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>11.629999999999995</v>
-      </c>
-      <c r="E71">
-        <v>46.669999999999959</v>
-      </c>
-      <c r="F71">
-        <v>0.71994857510177956</v>
+        <v>4.0299999999999727</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1592,10 +1589,10 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72">
-        <v>33.600000000000023</v>
+        <v>8.2400000000000091</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,10 +1603,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>1.4399999999999409</v>
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="E73">
+        <v>1.6000000000000227</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1620,13 +1620,16 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74">
-        <v>2.0500000000000682</v>
+        <v>7.4900000000000091</v>
       </c>
       <c r="E74">
-        <v>2.0500000000000682</v>
+        <v>13.409999999999968</v>
+      </c>
+      <c r="F74">
+        <v>0.31618195376584779</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,16 +1640,10 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75">
-        <v>9.8700000000000045</v>
-      </c>
-      <c r="E75">
-        <v>23.149999999999977</v>
-      </c>
-      <c r="F75">
-        <v>0.52526997840172696</v>
+        <v>4.2400000000000091</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,10 +1654,10 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76">
-        <v>12.159999999999968</v>
+        <v>1.67999999999995</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,10 +1668,16 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77">
-        <v>1.1200000000000045</v>
+        <v>11.629999999999995</v>
+      </c>
+      <c r="E77">
+        <v>46.669999999999959</v>
+      </c>
+      <c r="F77">
+        <v>0.71994857510177956</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1685,16 +1688,10 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78">
-        <v>12</v>
-      </c>
-      <c r="E78">
-        <v>20.960000000000036</v>
-      </c>
-      <c r="F78">
-        <v>0.35877862595419696</v>
+        <v>33.600000000000023</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79">
-        <v>7.5199999999999818</v>
+        <v>1.4399999999999409</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,10 +1716,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D80">
-        <v>1.4400000000000546</v>
+        <v>2.0500000000000682</v>
+      </c>
+      <c r="E80">
+        <v>2.0500000000000682</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,13 +1733,16 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81">
-        <v>49.279999999999973</v>
+        <v>9.8700000000000045</v>
       </c>
       <c r="E81">
-        <v>49.279999999999973</v>
+        <v>23.149999999999977</v>
+      </c>
+      <c r="F81">
+        <v>0.52526997840172696</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -1750,16 +1753,10 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>6.4800000000000182</v>
-      </c>
-      <c r="E82">
-        <v>45.279999999999973</v>
-      </c>
-      <c r="F82">
-        <v>0.81625441696112955</v>
+        <v>12.159999999999968</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,10 +1767,10 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83">
-        <v>36.959999999999923</v>
+        <v>1.1200000000000045</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,10 +1781,16 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84">
-        <v>1.8400000000000318</v>
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>20.960000000000036</v>
+      </c>
+      <c r="F84">
+        <v>0.35877862595419696</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -1798,13 +1801,10 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85">
-        <v>13.039999999999964</v>
-      </c>
-      <c r="E85">
-        <v>13.039999999999964</v>
+        <v>7.5199999999999818</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1815,16 +1815,10 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86">
-        <v>5.2800000000000864</v>
-      </c>
-      <c r="E86">
-        <v>15.680000000000064</v>
-      </c>
-      <c r="F86">
-        <v>0.58163265306122247</v>
+        <v>1.4400000000000546</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,10 +1829,13 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87">
-        <v>9.1200000000000045</v>
+        <v>49.279999999999973</v>
+      </c>
+      <c r="E87">
+        <v>49.279999999999973</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -1849,10 +1846,16 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88">
-        <v>1.2799999999999727</v>
+        <v>6.4800000000000182</v>
+      </c>
+      <c r="E88">
+        <v>45.279999999999973</v>
+      </c>
+      <c r="F88">
+        <v>0.81625441696112955</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -1863,10 +1866,10 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>1.1200000000000045</v>
+        <v>36.959999999999923</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,13 +1880,10 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>14.879999999999995</v>
-      </c>
-      <c r="E90">
-        <v>14.879999999999995</v>
+        <v>1.8400000000000318</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,16 +1894,13 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>14.159999999999968</v>
+        <v>13.039999999999964</v>
       </c>
       <c r="E91">
-        <v>56</v>
-      </c>
-      <c r="F91">
-        <v>0.72714285714285765</v>
+        <v>13.039999999999964</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,10 +1911,16 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92">
-        <v>40.720000000000027</v>
+        <v>5.2800000000000864</v>
+      </c>
+      <c r="E92">
+        <v>15.680000000000064</v>
+      </c>
+      <c r="F92">
+        <v>0.58163265306122247</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,10 +1931,10 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>1.1200000000000045</v>
+        <v>9.1200000000000045</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -1942,13 +1945,10 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94">
-        <v>7.1200000000000045</v>
-      </c>
-      <c r="E94">
-        <v>7.1200000000000045</v>
+        <v>1.2799999999999727</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -1959,16 +1959,10 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95">
-        <v>11.360000000000014</v>
-      </c>
-      <c r="F95">
-        <v>0.37323943661971865</v>
+        <v>1.1200000000000045</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,10 +1973,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96">
-        <v>4.2400000000000091</v>
+        <v>14.879999999999995</v>
+      </c>
+      <c r="E96">
+        <v>14.879999999999995</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -1993,10 +1990,16 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D97">
-        <v>3.1200000000000045</v>
+        <v>14.159999999999968</v>
+      </c>
+      <c r="E97">
+        <v>56</v>
+      </c>
+      <c r="F97">
+        <v>0.72714285714285765</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,13 +2010,10 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>3.5199999999999818</v>
-      </c>
-      <c r="E98">
-        <v>3.5199999999999818</v>
+        <v>40.720000000000027</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,13 +2024,10 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99">
-        <v>24.879999999999995</v>
-      </c>
-      <c r="E99">
-        <v>24.879999999999995</v>
+        <v>1.1200000000000045</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2041,13 +2038,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100">
-        <v>1.7599999999999909</v>
+        <v>7.1200000000000045</v>
       </c>
       <c r="E100">
-        <v>1.7599999999999909</v>
+        <v>7.1200000000000045</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2058,13 +2055,16 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>10.32000000000005</v>
+        <v>4</v>
       </c>
       <c r="E101">
-        <v>10.32000000000005</v>
+        <v>11.360000000000014</v>
+      </c>
+      <c r="F101">
+        <v>0.37323943661971865</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2075,16 +2075,10 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102">
-        <v>7.9199999999999591</v>
-      </c>
-      <c r="E102">
-        <v>36.559999999999945</v>
-      </c>
-      <c r="F102">
-        <v>0.75492341356674131</v>
+        <v>4.2400000000000091</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,10 +2089,10 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103">
-        <v>27.600000000000023</v>
+        <v>3.1200000000000045</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2109,10 +2103,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104">
-        <v>1.0399999999999636</v>
+        <v>3.5199999999999818</v>
+      </c>
+      <c r="E104">
+        <v>3.5199999999999818</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2120,16 +2117,16 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105">
-        <v>0.96000000000003638</v>
+        <v>24.879999999999995</v>
       </c>
       <c r="E105">
-        <v>0.96000000000003638</v>
+        <v>24.879999999999995</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,16 +2134,16 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D106">
-        <v>9.2000000000000455</v>
+        <v>1.7599999999999909</v>
       </c>
       <c r="E106">
-        <v>9.2000000000000455</v>
+        <v>1.7599999999999909</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2154,19 +2151,16 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107">
-        <v>2.5299999999999727</v>
+        <v>10.32000000000005</v>
       </c>
       <c r="E107">
-        <v>9.0099999999999909</v>
-      </c>
-      <c r="F107">
-        <v>0.45283018867923769</v>
+        <v>10.32000000000005</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,13 +2168,19 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D108">
-        <v>4.0799999999999272</v>
+        <v>7.9199999999999591</v>
+      </c>
+      <c r="E108">
+        <v>36.559999999999945</v>
+      </c>
+      <c r="F108">
+        <v>0.75492341356674131</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,13 +2188,13 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109">
-        <v>2.4000000000000909</v>
+        <v>27.600000000000023</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2202,16 +2202,13 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D110">
-        <v>3.9199999999998454</v>
-      </c>
-      <c r="E110">
-        <v>3.9199999999998454</v>
+        <v>1.0399999999999636</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,16 +2216,16 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111">
-        <v>5.9500000000000455</v>
+        <v>0.96000000000003638</v>
       </c>
       <c r="E111">
-        <v>5.9500000000000455</v>
+        <v>0.96000000000003638</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,19 +2233,16 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D112">
-        <v>7.6000000000001364</v>
+        <v>9.2000000000000455</v>
       </c>
       <c r="E112">
-        <v>13.519999999999982</v>
-      </c>
-      <c r="F112">
-        <v>0.29585798816568087</v>
+        <v>9.2000000000000455</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,13 +2250,19 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>2.5299999999999727</v>
+      </c>
+      <c r="E113">
+        <v>9.0099999999999909</v>
+      </c>
+      <c r="F113">
+        <v>0.45283018867923769</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,13 +2270,13 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114">
-        <v>1.9199999999998454</v>
+        <v>4.0799999999999272</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,16 +2284,13 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D115">
-        <v>5.8900000000001</v>
-      </c>
-      <c r="E115">
-        <v>5.8900000000001</v>
+        <v>2.4000000000000909</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2301,19 +2298,16 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D116">
-        <v>9.1499999999998636</v>
+        <v>3.9199999999998454</v>
       </c>
       <c r="E116">
-        <v>16.269999999999982</v>
-      </c>
-      <c r="F116">
-        <v>0.31960663798402283</v>
+        <v>3.9199999999998454</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,13 +2315,16 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D117">
-        <v>5.2000000000000455</v>
+        <v>5.9500000000000455</v>
+      </c>
+      <c r="E117">
+        <v>5.9500000000000455</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,13 +2332,19 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118">
-        <v>1.9200000000000728</v>
+        <v>7.6000000000001364</v>
+      </c>
+      <c r="E118">
+        <v>13.519999999999982</v>
+      </c>
+      <c r="F118">
+        <v>0.29585798816568087</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2349,16 +2352,13 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119">
-        <v>0.48000000000001819</v>
-      </c>
-      <c r="E119">
-        <v>0.48000000000001819</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2366,19 +2366,13 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D120">
-        <v>8.3999999999998636</v>
-      </c>
-      <c r="E120">
-        <v>30.799999999999955</v>
-      </c>
-      <c r="F120">
-        <v>0.65454545454545821</v>
+        <v>1.9199999999998454</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2386,13 +2380,16 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121">
-        <v>20.160000000000082</v>
+        <v>5.8900000000001</v>
+      </c>
+      <c r="E121">
+        <v>5.8900000000001</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2400,13 +2397,19 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D122">
-        <v>2.2400000000000091</v>
+        <v>9.1499999999998636</v>
+      </c>
+      <c r="E122">
+        <v>16.269999999999982</v>
+      </c>
+      <c r="F122">
+        <v>0.31960663798402283</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,19 +2417,13 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123">
-        <v>2.6400000000001</v>
-      </c>
-      <c r="E123">
-        <v>33.119999999999891</v>
-      </c>
-      <c r="F123">
-        <v>0.89130434782608936</v>
+        <v>5.2000000000000455</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -2434,13 +2431,13 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D124">
-        <v>29.519999999999982</v>
+        <v>1.9200000000000728</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -2448,13 +2445,16 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125">
-        <v>0.95999999999980901</v>
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="E125">
+        <v>0.48000000000001819</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -2462,16 +2462,19 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D126">
-        <v>0.96000000000003638</v>
+        <v>8.3999999999998636</v>
       </c>
       <c r="E126">
-        <v>0.96000000000003638</v>
+        <v>30.799999999999955</v>
+      </c>
+      <c r="F126">
+        <v>0.65454545454545821</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2479,16 +2482,13 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127">
-        <v>6.3200000000001637</v>
-      </c>
-      <c r="E127">
-        <v>6.3200000000001637</v>
+        <v>20.160000000000082</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -2496,19 +2496,13 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D128">
-        <v>7.4399999999998272</v>
-      </c>
-      <c r="E128">
-        <v>19.9699999999998</v>
-      </c>
-      <c r="F128">
-        <v>0.54081121682525235</v>
+        <v>2.2400000000000091</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -2516,13 +2510,19 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D129">
-        <v>10.800000000000182</v>
+        <v>2.6400000000001</v>
+      </c>
+      <c r="E129">
+        <v>33.119999999999891</v>
+      </c>
+      <c r="F129">
+        <v>0.89130434782608936</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -2530,13 +2530,13 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130">
-        <v>1.7299999999997908</v>
+        <v>29.519999999999982</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,19 +2544,13 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D131">
-        <v>6.9900000000000091</v>
-      </c>
-      <c r="E131">
-        <v>16.0300000000002</v>
-      </c>
-      <c r="F131">
-        <v>0.45414847161572736</v>
+        <v>0.95999999999980901</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -2564,13 +2558,16 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D132">
-        <v>7.2800000000002001</v>
+        <v>0.96000000000003638</v>
+      </c>
+      <c r="E132">
+        <v>0.96000000000003638</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -2578,13 +2575,16 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D133">
-        <v>1.7599999999999909</v>
+        <v>6.3200000000001637</v>
+      </c>
+      <c r="E133">
+        <v>6.3200000000001637</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -2592,16 +2592,19 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D134">
-        <v>34.079999999999927</v>
+        <v>7.4399999999998272</v>
       </c>
       <c r="E134">
-        <v>34.079999999999927</v>
+        <v>19.9699999999998</v>
+      </c>
+      <c r="F134">
+        <v>0.54081121682525235</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -2609,16 +2612,13 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135">
-        <v>1.5199999999999818</v>
-      </c>
-      <c r="E135">
-        <v>1.5199999999999818</v>
+        <v>10.800000000000182</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -2626,19 +2626,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D136">
-        <v>10.960000000000036</v>
-      </c>
-      <c r="E136">
-        <v>21.920000000000073</v>
-      </c>
-      <c r="F136">
-        <v>0.41240875912408459</v>
+        <v>1.7299999999997908</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -2646,13 +2640,19 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D137">
-        <v>9.0399999999999636</v>
+        <v>6.9900000000000091</v>
+      </c>
+      <c r="E137">
+        <v>16.0300000000002</v>
+      </c>
+      <c r="F137">
+        <v>0.45414847161572736</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -2660,13 +2660,13 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138">
-        <v>1.9200000000000728</v>
+        <v>7.2800000000002001</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -2674,19 +2674,13 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D139">
-        <v>9.9700000000000273</v>
-      </c>
-      <c r="E139">
-        <v>18.559999999999945</v>
-      </c>
-      <c r="F139">
-        <v>0.35937499999999273</v>
+        <v>1.7599999999999909</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -2694,13 +2688,16 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D140">
-        <v>6.6699999999998454</v>
+        <v>34.079999999999927</v>
+      </c>
+      <c r="E140">
+        <v>34.079999999999927</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -2708,13 +2705,16 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D141">
-        <v>1.9200000000000728</v>
+        <v>1.5199999999999818</v>
+      </c>
+      <c r="E141">
+        <v>1.5199999999999818</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -2722,19 +2722,19 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142">
-        <v>7.8099999999999454</v>
+        <v>10.960000000000036</v>
       </c>
       <c r="E142">
-        <v>13.279999999999973</v>
+        <v>21.920000000000073</v>
       </c>
       <c r="F142">
-        <v>0.3034638554216853</v>
+        <v>0.41240875912408459</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -2742,13 +2742,13 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143">
-        <v>4.0299999999999727</v>
+        <v>9.0399999999999636</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -2756,13 +2756,13 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D144">
-        <v>1.4400000000000546</v>
+        <v>1.9200000000000728</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -2770,16 +2770,19 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D145">
-        <v>1.1700000000000728</v>
+        <v>9.9700000000000273</v>
       </c>
       <c r="E145">
-        <v>1.1700000000000728</v>
+        <v>18.559999999999945</v>
+      </c>
+      <c r="F145">
+        <v>0.35937499999999273</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -2787,19 +2790,13 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146">
-        <v>14.159999999999854</v>
-      </c>
-      <c r="E146">
-        <v>50.509999999999991</v>
-      </c>
-      <c r="F146">
-        <v>0.69431795684023301</v>
+        <v>6.6699999999998454</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -2807,13 +2804,13 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D147">
-        <v>35.070000000000164</v>
+        <v>1.9200000000000728</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -2821,13 +2818,19 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D148">
-        <v>1.2799999999999727</v>
+        <v>7.8099999999999454</v>
+      </c>
+      <c r="E148">
+        <v>13.279999999999973</v>
+      </c>
+      <c r="F148">
+        <v>0.3034638554216853</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,16 +2838,13 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149">
-        <v>16.399999999999864</v>
-      </c>
-      <c r="E149">
-        <v>16.399999999999864</v>
+        <v>4.0299999999999727</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -2852,19 +2852,13 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D150">
-        <v>9.5199999999999818</v>
-      </c>
-      <c r="E150">
-        <v>27.040000000000191</v>
-      </c>
-      <c r="F150">
-        <v>0.60059171597632743</v>
+        <v>1.4400000000000546</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -2872,13 +2866,16 @@
         <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D151">
-        <v>16.240000000000009</v>
+        <v>1.1700000000000728</v>
+      </c>
+      <c r="E151">
+        <v>1.1700000000000728</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -2886,13 +2883,19 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D152">
-        <v>1.2800000000002001</v>
+        <v>14.159999999999854</v>
+      </c>
+      <c r="E152">
+        <v>50.509999999999991</v>
+      </c>
+      <c r="F152">
+        <v>0.69431795684023301</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,16 +2903,13 @@
         <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D153">
-        <v>1.5199999999999818</v>
-      </c>
-      <c r="E153">
-        <v>1.5199999999999818</v>
+        <v>35.070000000000164</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,19 +2917,13 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D154">
-        <v>10.799999999999955</v>
-      </c>
-      <c r="E154">
-        <v>35.279999999999973</v>
-      </c>
-      <c r="F154">
-        <v>0.66213151927437408</v>
+        <v>1.2799999999999727</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -2937,13 +2931,16 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D155">
-        <v>23.3599999999999</v>
+        <v>16.399999999999864</v>
+      </c>
+      <c r="E155">
+        <v>16.399999999999864</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,13 +2948,19 @@
         <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D156">
-        <v>1.1200000000001182</v>
+        <v>9.5199999999999818</v>
+      </c>
+      <c r="E156">
+        <v>27.040000000000191</v>
+      </c>
+      <c r="F156">
+        <v>0.60059171597632743</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -2965,19 +2968,13 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D157">
-        <v>18.720000000000027</v>
-      </c>
-      <c r="E157">
-        <v>35.439999999999827</v>
-      </c>
-      <c r="F157">
-        <v>0.44243792325056186</v>
+        <v>16.240000000000009</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,13 +2982,13 @@
         <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D158">
-        <v>15.679999999999836</v>
+        <v>1.2800000000002001</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,13 +2996,16 @@
         <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D159">
-        <v>1.0399999999999636</v>
+        <v>1.5199999999999818</v>
+      </c>
+      <c r="E159">
+        <v>1.5199999999999818</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3013,16 +3013,19 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D160">
-        <v>1.4400000000000546</v>
+        <v>10.799999999999955</v>
       </c>
       <c r="E160">
-        <v>1.4400000000000546</v>
+        <v>35.279999999999973</v>
+      </c>
+      <c r="F160">
+        <v>0.66213151927437408</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3030,16 +3033,13 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D161">
-        <v>15.920000000000073</v>
-      </c>
-      <c r="E161">
-        <v>15.920000000000073</v>
+        <v>23.3599999999999</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3047,19 +3047,13 @@
         <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D162">
-        <v>7.4400000000000546</v>
-      </c>
-      <c r="E162">
-        <v>17.440000000000055</v>
-      </c>
-      <c r="F162">
-        <v>0.49082568807338983</v>
+        <v>1.1200000000001182</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,13 +3061,19 @@
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163">
-        <v>8.5599999999999454</v>
+        <v>18.720000000000027</v>
+      </c>
+      <c r="E163">
+        <v>35.439999999999827</v>
+      </c>
+      <c r="F163">
+        <v>0.44243792325056186</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3081,13 +3081,13 @@
         <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D164">
-        <v>1.4400000000000546</v>
+        <v>15.679999999999836</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3095,19 +3095,13 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D165">
-        <v>9.1699999999998454</v>
-      </c>
-      <c r="E165">
-        <v>24.399999999999864</v>
-      </c>
-      <c r="F165">
-        <v>0.57827868852459863</v>
+        <v>1.0399999999999636</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,13 +3109,16 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D166">
-        <v>14.110000000000127</v>
+        <v>1.4400000000000546</v>
+      </c>
+      <c r="E166">
+        <v>1.4400000000000546</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3129,13 +3126,16 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D167">
-        <v>1.1199999999998909</v>
+        <v>15.920000000000073</v>
+      </c>
+      <c r="E167">
+        <v>15.920000000000073</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3143,16 +3143,19 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D168">
-        <v>4.2400000000000091</v>
+        <v>7.4400000000000546</v>
       </c>
       <c r="E168">
-        <v>4.2400000000000091</v>
+        <v>17.440000000000055</v>
+      </c>
+      <c r="F168">
+        <v>0.49082568807338983</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -3160,19 +3163,13 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D169">
-        <v>8.5299999999999727</v>
-      </c>
-      <c r="E169">
-        <v>20.960000000000036</v>
-      </c>
-      <c r="F169">
-        <v>0.47089694656489034</v>
+        <v>8.5599999999999454</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -3180,13 +3177,13 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D170">
-        <v>9.8700000000001182</v>
+        <v>1.4400000000000546</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -3194,13 +3191,19 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D171">
-        <v>2.5599999999999454</v>
+        <v>9.1699999999998454</v>
+      </c>
+      <c r="E171">
+        <v>24.399999999999864</v>
+      </c>
+      <c r="F171">
+        <v>0.57827868852459863</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -3208,16 +3211,13 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D172">
-        <v>48.960000000000036</v>
-      </c>
-      <c r="E172">
-        <v>48.960000000000036</v>
+        <v>14.110000000000127</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,19 +3225,13 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D173">
-        <v>4.8799999999998818</v>
-      </c>
-      <c r="E173">
-        <v>10.960000000000036</v>
-      </c>
-      <c r="F173">
-        <v>0.40875912408759152</v>
+        <v>1.1199999999998909</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,13 +3239,16 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D174">
-        <v>4.4800000000000182</v>
+        <v>4.2400000000000091</v>
+      </c>
+      <c r="E174">
+        <v>4.2400000000000091</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,13 +3256,19 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D175">
-        <v>1.6000000000001364</v>
+        <v>8.5299999999999727</v>
+      </c>
+      <c r="E175">
+        <v>20.960000000000036</v>
+      </c>
+      <c r="F175">
+        <v>0.47089694656489034</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -3273,16 +3276,13 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D176">
-        <v>2.7999999999999545</v>
-      </c>
-      <c r="E176">
-        <v>2.7999999999999545</v>
+        <v>9.8700000000001182</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -3290,19 +3290,13 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D177">
-        <v>12.879999999999882</v>
-      </c>
-      <c r="E177">
-        <v>24.6400000000001</v>
-      </c>
-      <c r="F177">
-        <v>0.40584415584415418</v>
+        <v>2.5599999999999454</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -3310,13 +3304,16 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>48.960000000000036</v>
+      </c>
+      <c r="E178">
+        <v>48.960000000000036</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -3324,13 +3321,19 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D179">
-        <v>1.7600000000002183</v>
+        <v>4.8799999999998818</v>
+      </c>
+      <c r="E179">
+        <v>10.960000000000036</v>
+      </c>
+      <c r="F179">
+        <v>0.40875912408759152</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -3338,16 +3341,13 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D180">
-        <v>14.399999999999864</v>
-      </c>
-      <c r="E180">
-        <v>14.399999999999864</v>
+        <v>4.4800000000000182</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -3355,19 +3355,13 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D181">
-        <v>7.8099999999999454</v>
-      </c>
-      <c r="E181">
-        <v>36.960000000000036</v>
-      </c>
-      <c r="F181">
-        <v>0.64150432900432941</v>
+        <v>1.6000000000001364</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,13 +3369,16 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D182">
-        <v>23.710000000000036</v>
+        <v>2.7999999999999545</v>
+      </c>
+      <c r="E182">
+        <v>2.7999999999999545</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -3389,13 +3386,19 @@
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D183">
-        <v>5.4400000000000546</v>
+        <v>12.879999999999882</v>
+      </c>
+      <c r="E183">
+        <v>24.6400000000001</v>
+      </c>
+      <c r="F183">
+        <v>0.40584415584415418</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,16 +3406,13 @@
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D184">
-        <v>11.519999999999982</v>
-      </c>
-      <c r="E184">
-        <v>11.519999999999982</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -3420,19 +3420,13 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D185">
-        <v>9.8900000000001</v>
-      </c>
-      <c r="E185">
-        <v>35.839999999999918</v>
-      </c>
-      <c r="F185">
-        <v>0.68833705357142583</v>
+        <v>1.7600000000002183</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -3440,13 +3434,16 @@
         <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D186">
-        <v>24.669999999999845</v>
+        <v>14.399999999999864</v>
+      </c>
+      <c r="E186">
+        <v>14.399999999999864</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -3454,13 +3451,19 @@
         <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D187">
-        <v>1.2799999999999727</v>
+        <v>7.8099999999999454</v>
+      </c>
+      <c r="E187">
+        <v>36.960000000000036</v>
+      </c>
+      <c r="F187">
+        <v>0.64150432900432941</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -3468,15 +3471,108 @@
         <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D188">
+        <v>23.710000000000036</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189">
+        <v>5.4400000000000546</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190">
+        <v>11.519999999999982</v>
+      </c>
+      <c r="E190">
+        <v>11.519999999999982</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191">
+        <v>9.8900000000001</v>
+      </c>
+      <c r="E191">
+        <v>35.839999999999918</v>
+      </c>
+      <c r="F191">
+        <v>0.68833705357142583</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192">
+        <v>24.669999999999845</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193">
+        <v>1.2799999999999727</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194">
         <v>17.8900000000001</v>
       </c>
-      <c r="E188">
+      <c r="E194">
         <v>17.8900000000001</v>
       </c>
     </row>

--- a/Data/1-AV-001-PR.xlsx
+++ b/Data/1-AV-001-PR.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -405,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
